--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\2024_ib153l-9_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76FE746-26E7-4A3A-B764-0F5CA71CC7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ED62F5-F2DE-4720-8785-DF2D7A580FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6E209F6-E5B3-4543-9BA6-9C14573328B1}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F6E209F6-E5B3-4543-9BA6-9C14573328B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
-  <si>
-    <t>Szálláskereső</t>
-  </si>
-  <si>
-    <t>emai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>név</t>
   </si>
@@ -65,33 +59,12 @@
     <t>házszám</t>
   </si>
   <si>
-    <t>id (primary key)</t>
-  </si>
-  <si>
-    <t>függő szállásfoglalások</t>
-  </si>
-  <si>
-    <t>előző foglalások</t>
-  </si>
-  <si>
     <t>átlag értékelés</t>
   </si>
   <si>
-    <t>Szálláshirdető</t>
-  </si>
-  <si>
-    <t>függő foglalások</t>
-  </si>
-  <si>
-    <t>admin-e</t>
-  </si>
-  <si>
     <t>település</t>
   </si>
   <si>
-    <t>szallasok_id (foreign key)</t>
-  </si>
-  <si>
     <t>férőhely</t>
   </si>
   <si>
@@ -110,9 +83,6 @@
     <t>szállás_id(FK)</t>
   </si>
   <si>
-    <t>időintervallum</t>
-  </si>
-  <si>
     <t>fő</t>
   </si>
   <si>
@@ -135,6 +105,30 @@
   </si>
   <si>
     <t>szöveg</t>
+  </si>
+  <si>
+    <t>értékelés_dátuma</t>
+  </si>
+  <si>
+    <t>státusz</t>
+  </si>
+  <si>
+    <t>szálláshirdető_id(FK)</t>
+  </si>
+  <si>
+    <t>kezdő_dátum</t>
+  </si>
+  <si>
+    <t>záró_dátum</t>
+  </si>
+  <si>
+    <t>Felhasználók</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>jogosultság(szállásK,szállásA,admin)</t>
   </si>
 </sst>
 </file>
@@ -525,204 +519,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC048C26-354C-4973-BB55-06A1DE7829CC}">
-  <dimension ref="B1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    </row>
+    <row r="14" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\2024_ib153l-9_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ED62F5-F2DE-4720-8785-DF2D7A580FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26324D07-CC9D-484B-AD2A-46E9558F64ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F6E209F6-E5B3-4543-9BA6-9C14573328B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>név</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -632,9 +632,6 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -646,25 +643,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>

--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\2024_ib153l-9_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26324D07-CC9D-484B-AD2A-46E9558F64ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA43B9-FE87-4009-B250-BA0DE991B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F6E209F6-E5B3-4543-9BA6-9C14573328B1}"/>
   </bookViews>
